--- a/JGT-workspace/report/findGCD/findGCD_.xlsx
+++ b/JGT-workspace/report/findGCD/findGCD_.xlsx
@@ -94,13 +94,13 @@
     <t>x</t>
   </si>
   <si>
-    <t>-358271056</t>
+    <t>407172394</t>
   </si>
   <si>
     <t>y</t>
   </si>
   <si>
-    <t>-1753918035</t>
+    <t>1721061044</t>
   </si>
   <si>
     <t>RETURN</t>
